--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>45005</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44382</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44792</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>45005</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43881</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45071</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43697</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44214</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44699</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44853</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44174</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44952</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44160</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44774</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44832</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44860</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45006</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45112</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43609</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43861</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44734</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43899</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44285</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44354</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44439</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44609</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>44622</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44971</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>45072</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45099</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>45112</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43684</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43856</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44113</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>44475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44503</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44609</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44812</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44853</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45076</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45105</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43409</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43867</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44019</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44068</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44114</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44230</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44424</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>44439</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44483</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44500</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44539</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44699</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44819</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44854</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44964</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45072</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45086</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>45148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43336</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43340</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43376</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43383</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>43402</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43404</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43409</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43410</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43411</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43412</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43413</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43416</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43417</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>43424</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43430</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43432</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43433</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43434</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43440</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43446</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>43455</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>43467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>43479</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>43482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>43483</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43486</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43493</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43521</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43531</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43535</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>43538</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>43542</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>43552</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>43553</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>43556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>43558</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43564</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43565</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43570</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43572</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43585</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>43592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43600</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43606</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43607</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43612</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43614</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>43619</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>43627</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>43628</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>43633</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>43640</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>43642</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43650</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>43654</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>43664</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>43670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43679</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43682</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>43684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>43685</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>43690</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>43697</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>43700</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>43706</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>43710</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>43728</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>43734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>43738</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>43739</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>43741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>43742</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>43746</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>43747</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>43749</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>43752</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>43756</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>43760</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>43761</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>43762</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>43766</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>43773</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>43774</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>43781</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>43783</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>43787</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>43788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>43789</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43790</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43794</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>43795</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>43801</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>43805</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>43815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>43818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>43819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>43830</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>43832</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>43837</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>43838</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>43847</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>43853</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>43856</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>43857</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>43858</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>43859</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>43864</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>43866</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>43867</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>43872</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>43875</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>43886</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>43889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>43899</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>43902</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43908</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>43914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>43921</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>43936</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>43941</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>43943</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>43944</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>43949</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>43951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43957</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>43959</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>43963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>43964</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43966</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43969</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43976</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>43978</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>43980</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>43987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>43992</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>43997</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44000</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44006</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44011</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44013</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44014</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44015</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44019</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44025</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44032</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44036</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>44039</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>44042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44062</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44063</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>44064</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44071</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>44076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>44077</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>44078</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44091</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44095</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>44096</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44103</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44106</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44109</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44113</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44114</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44118</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44120</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>44124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>44126</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>44130</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44139</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44147</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44151</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44152</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44155</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>44161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44169</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44172</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44173</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44175</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44186</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44187</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44193</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44214</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44217</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44235</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44236</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44238</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>44242</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>44251</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44257</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44265</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>44272</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>44273</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44280</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44293</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44299</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44308</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>44312</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>44313</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44320</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44323</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44326</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44328</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>44336</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>44340</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>44341</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44347</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>44354</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44358</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44361</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44363</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44364</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44368</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44369</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44377</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44379</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44382</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44383</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44384</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44393</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44397</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>44399</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>44406</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>44411</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>44417</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>44431</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>44433</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44435</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44439</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         <v>44441</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44452</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38016,7 +38016,7 @@
         <v>44453</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>44454</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>44457</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>44460</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>44461</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>44466</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>44469</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38834,7 +38834,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38891,7 +38891,7 @@
         <v>44473</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38948,7 +38948,7 @@
         <v>44475</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39005,7 +39005,7 @@
         <v>44477</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39062,7 +39062,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39119,7 +39119,7 @@
         <v>44482</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39176,7 +39176,7 @@
         <v>44483</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44489</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39290,7 +39290,7 @@
         <v>44494</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39352,7 +39352,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39414,7 +39414,7 @@
         <v>44495</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>44501</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39528,7 +39528,7 @@
         <v>44502</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>44503</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>44508</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>44509</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>44512</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39947,7 +39947,7 @@
         <v>44515</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40009,7 +40009,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>44518</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         <v>44519</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>44523</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>44524</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>44529</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>44532</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>44537</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>44538</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>44574</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>44592</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>44595</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>44599</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>44600</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41273,7 +41273,7 @@
         <v>44601</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41330,7 +41330,7 @@
         <v>44607</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41387,7 +41387,7 @@
         <v>44614</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41444,7 +41444,7 @@
         <v>44616</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41501,7 +41501,7 @@
         <v>44617</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41558,7 +41558,7 @@
         <v>44622</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41677,7 +41677,7 @@
         <v>44624</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
         <v>44627</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>44628</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44634</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44635</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41977,7 +41977,7 @@
         <v>44641</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42034,7 +42034,7 @@
         <v>44642</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42096,7 +42096,7 @@
         <v>44644</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44648</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44649</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42267,7 +42267,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42324,7 +42324,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44651</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>44652</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42614,7 +42614,7 @@
         <v>44656</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42671,7 +42671,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42728,7 +42728,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42785,7 +42785,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42899,7 +42899,7 @@
         <v>44657</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42956,7 +42956,7 @@
         <v>44664</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43013,7 +43013,7 @@
         <v>44665</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43070,7 +43070,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43127,7 +43127,7 @@
         <v>44676</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44679</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         <v>44683</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43360,7 +43360,7 @@
         <v>44686</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43417,7 +43417,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43474,7 +43474,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43536,7 +43536,7 @@
         <v>44690</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>44691</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43737,7 +43737,7 @@
         <v>44692</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44698</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>44699</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>44701</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43970,7 +43970,7 @@
         <v>44705</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>44726</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44728</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44733</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44734</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>44739</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44750</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44755</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>44757</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44570,7 +44570,7 @@
         <v>44774</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>44776</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>44783</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>44785</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>44788</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>44791</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44796</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45279,7 +45279,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45341,7 +45341,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45403,7 +45403,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45465,7 +45465,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45522,7 +45522,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>44805</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44813</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45832,7 +45832,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45894,7 +45894,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45956,7 +45956,7 @@
         <v>44818</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46013,7 +46013,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46075,7 +46075,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46132,7 +46132,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46194,7 +46194,7 @@
         <v>44819</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46256,7 +46256,7 @@
         <v>44825</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>44827</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44832</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44833</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44837</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>44841</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46695,7 +46695,7 @@
         <v>44844</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44845</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46876,7 +46876,7 @@
         <v>44846</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
         <v>44847</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>44852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>44858</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>44860</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>44861</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>44866</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47290,7 +47290,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47347,7 +47347,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47409,7 +47409,7 @@
         <v>44868</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47466,7 +47466,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47528,7 +47528,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44869</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44872</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47766,7 +47766,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47823,7 +47823,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47885,7 +47885,7 @@
         <v>44873</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47947,7 +47947,7 @@
         <v>44875</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48009,7 +48009,7 @@
         <v>44879</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48071,7 +48071,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48133,7 +48133,7 @@
         <v>44880</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48190,7 +48190,7 @@
         <v>44881</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48247,7 +48247,7 @@
         <v>44882</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48309,7 +48309,7 @@
         <v>44883</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48366,7 +48366,7 @@
         <v>44886</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48490,7 +48490,7 @@
         <v>44887</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         <v>44888</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48609,7 +48609,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48666,7 +48666,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48723,7 +48723,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48785,7 +48785,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48842,7 +48842,7 @@
         <v>44889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48904,7 +48904,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48966,7 +48966,7 @@
         <v>44890</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49028,7 +49028,7 @@
         <v>44893</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>44894</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49147,7 +49147,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>44895</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49328,7 +49328,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49390,7 +49390,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>44896</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>44897</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>44907</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>44910</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49809,7 +49809,7 @@
         <v>44914</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49866,7 +49866,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>44929</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50161,7 +50161,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50218,7 +50218,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>44930</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50399,7 +50399,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50523,7 +50523,7 @@
         <v>44935</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50585,7 +50585,7 @@
         <v>44938</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50642,7 +50642,7 @@
         <v>44940</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50699,7 +50699,7 @@
         <v>44945</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50761,7 +50761,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50818,7 +50818,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>44950</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51113,7 +51113,7 @@
         <v>44952</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51170,7 +51170,7 @@
         <v>44953</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51227,7 +51227,7 @@
         <v>44957</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>44958</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>44964</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>44966</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51827,7 +51827,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51889,7 +51889,7 @@
         <v>44971</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51951,7 +51951,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52008,7 +52008,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52251,7 +52251,7 @@
         <v>44972</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>44977</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52432,7 +52432,7 @@
         <v>44978</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52494,7 +52494,7 @@
         <v>44980</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52551,7 +52551,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52608,7 +52608,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52665,7 +52665,7 @@
         <v>44985</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52727,7 +52727,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52789,7 +52789,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44987</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44988</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52970,7 +52970,7 @@
         <v>44993</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53032,7 +53032,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53089,7 +53089,7 @@
         <v>45000</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53151,7 +53151,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53275,7 +53275,7 @@
         <v>45002</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53337,7 +53337,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53399,7 +53399,7 @@
         <v>45006</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53461,7 +53461,7 @@
         <v>45009</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53518,7 +53518,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53580,7 +53580,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53637,7 +53637,7 @@
         <v>45013</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53699,7 +53699,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45015</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45028</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54004,7 +54004,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54123,7 +54123,7 @@
         <v>45030</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54180,7 +54180,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54299,7 +54299,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54361,7 +54361,7 @@
         <v>45033</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54418,7 +54418,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>45034</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54589,7 +54589,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54646,7 +54646,7 @@
         <v>45036</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54708,7 +54708,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45037</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54827,7 +54827,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54884,7 +54884,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54941,7 +54941,7 @@
         <v>45040</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55065,7 +55065,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55127,7 +55127,7 @@
         <v>45041</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>45042</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55246,7 +55246,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55308,7 +55308,7 @@
         <v>45048</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55365,7 +55365,7 @@
         <v>45050</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>45051</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>45054</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>45055</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55774,7 +55774,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55831,7 +55831,7 @@
         <v>45057</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>45058</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56079,7 +56079,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56141,7 +56141,7 @@
         <v>45062</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56203,7 +56203,7 @@
         <v>45063</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56265,7 +56265,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56327,7 +56327,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56451,7 +56451,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56513,7 +56513,7 @@
         <v>45070</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56570,7 +56570,7 @@
         <v>45072</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45075</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56694,7 +56694,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56751,7 +56751,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56813,7 +56813,7 @@
         <v>45077</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56875,7 +56875,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56937,7 +56937,7 @@
         <v>45078</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57056,7 +57056,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57113,7 +57113,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57170,7 +57170,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57289,7 +57289,7 @@
         <v>45079</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         <v>45084</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57460,7 +57460,7 @@
         <v>45085</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57517,7 +57517,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57574,7 +57574,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57631,7 +57631,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57688,7 +57688,7 @@
         <v>45086</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57750,7 +57750,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57812,7 +57812,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57874,7 +57874,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57993,7 +57993,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58055,7 +58055,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58360,7 +58360,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58422,7 +58422,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58484,7 +58484,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58670,7 +58670,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58784,7 +58784,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58965,7 +58965,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59027,7 +59027,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59151,7 +59151,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59213,7 +59213,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59270,7 +59270,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59327,7 +59327,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59384,7 +59384,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59441,7 +59441,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59498,7 +59498,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59555,7 +59555,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59617,7 +59617,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59674,7 +59674,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59736,7 +59736,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59798,7 +59798,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59860,7 +59860,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59922,7 +59922,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59984,7 +59984,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60046,7 +60046,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60108,7 +60108,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60170,7 +60170,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60232,7 +60232,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60294,7 +60294,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60356,7 +60356,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60418,7 +60418,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60480,7 +60480,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60542,7 +60542,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60723,7 +60723,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60785,7 +60785,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60966,7 +60966,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61028,7 +61028,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61209,7 +61209,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>45005</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32061,7 +32061,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32366,7 +32366,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33940,7 +33940,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34111,7 +34111,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34510,7 +34510,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34567,7 +34567,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34624,7 +34624,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34681,7 +34681,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34738,7 +34738,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34852,7 +34852,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35660,7 +35660,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36178,7 +36178,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38181,7 +38181,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38295,7 +38295,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38471,7 +38471,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38528,7 +38528,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39108,7 +39108,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39393,7 +39393,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39869,7 +39869,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39988,7 +39988,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40112,7 +40112,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40283,7 +40283,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41899,7 +41899,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42137,7 +42137,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42256,7 +42256,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42313,7 +42313,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42888,7 +42888,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42945,7 +42945,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43002,7 +43002,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43639,7 +43639,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43902,7 +43902,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44735,7 +44735,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46178,7 +46178,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46498,7 +46498,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46555,7 +46555,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46612,7 +46612,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46674,7 +46674,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46736,7 +46736,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46798,7 +46798,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47217,7 +47217,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47274,7 +47274,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47331,7 +47331,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47393,7 +47393,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47450,7 +47450,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47512,7 +47512,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47569,7 +47569,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47631,7 +47631,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47750,7 +47750,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47807,7 +47807,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47869,7 +47869,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48174,7 +48174,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48236,7 +48236,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48293,7 +48293,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48350,7 +48350,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48412,7 +48412,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48469,7 +48469,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48593,7 +48593,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48650,7 +48650,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48945,7 +48945,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49069,7 +49069,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49131,7 +49131,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49193,7 +49193,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49369,7 +49369,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49431,7 +49431,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49493,7 +49493,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49798,7 +49798,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49855,7 +49855,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49912,7 +49912,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49969,7 +49969,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50031,7 +50031,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50145,7 +50145,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50502,7 +50502,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50564,7 +50564,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50688,7 +50688,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50745,7 +50745,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50802,7 +50802,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50864,7 +50864,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50921,7 +50921,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50983,7 +50983,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51045,7 +51045,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51102,7 +51102,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51159,7 +51159,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51216,7 +51216,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51273,7 +51273,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51330,7 +51330,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51392,7 +51392,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51449,7 +51449,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51563,7 +51563,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51620,7 +51620,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51682,7 +51682,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51806,7 +51806,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51930,7 +51930,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52054,7 +52054,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52111,7 +52111,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52235,7 +52235,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52297,7 +52297,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52354,7 +52354,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52416,7 +52416,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52473,7 +52473,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52535,7 +52535,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52597,7 +52597,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52654,7 +52654,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52711,7 +52711,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52768,7 +52768,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52830,7 +52830,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52892,7 +52892,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52949,7 +52949,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53073,7 +53073,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53135,7 +53135,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53192,7 +53192,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53254,7 +53254,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53316,7 +53316,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53440,7 +53440,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53502,7 +53502,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53564,7 +53564,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53621,7 +53621,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53683,7 +53683,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53740,7 +53740,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53802,7 +53802,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53864,7 +53864,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53926,7 +53926,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53988,7 +53988,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54050,7 +54050,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54107,7 +54107,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54169,7 +54169,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54402,7 +54402,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54464,7 +54464,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54521,7 +54521,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54578,7 +54578,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54635,7 +54635,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54692,7 +54692,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54749,7 +54749,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54873,7 +54873,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54930,7 +54930,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55044,7 +55044,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55168,7 +55168,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55230,7 +55230,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55292,7 +55292,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55349,7 +55349,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55411,7 +55411,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55468,7 +55468,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55530,7 +55530,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55587,7 +55587,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55649,7 +55649,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55706,7 +55706,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55763,7 +55763,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55820,7 +55820,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55877,7 +55877,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55934,7 +55934,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55996,7 +55996,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56058,7 +56058,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56120,7 +56120,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56182,7 +56182,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56244,7 +56244,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56368,7 +56368,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56430,7 +56430,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56492,7 +56492,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56554,7 +56554,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56616,7 +56616,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56673,7 +56673,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56735,7 +56735,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56797,7 +56797,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56854,7 +56854,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56978,7 +56978,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57040,7 +57040,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57102,7 +57102,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57159,7 +57159,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57216,7 +57216,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57273,7 +57273,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57335,7 +57335,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57392,7 +57392,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57449,7 +57449,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57563,7 +57563,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57620,7 +57620,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57677,7 +57677,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57734,7 +57734,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57791,7 +57791,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57853,7 +57853,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57915,7 +57915,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58096,7 +58096,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58158,7 +58158,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58215,7 +58215,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58277,7 +58277,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58401,7 +58401,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58463,7 +58463,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58587,7 +58587,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58649,7 +58649,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58711,7 +58711,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58768,7 +58768,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58825,7 +58825,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58887,7 +58887,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58944,7 +58944,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59006,7 +59006,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59068,7 +59068,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59130,7 +59130,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59192,7 +59192,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59254,7 +59254,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59311,7 +59311,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59368,7 +59368,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59425,7 +59425,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59482,7 +59482,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59539,7 +59539,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59596,7 +59596,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59658,7 +59658,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59715,7 +59715,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59901,7 +59901,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59963,7 +59963,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60025,7 +60025,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60087,7 +60087,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60149,7 +60149,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60273,7 +60273,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60335,7 +60335,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60397,7 +60397,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60459,7 +60459,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60521,7 +60521,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60583,7 +60583,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60645,7 +60645,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60702,7 +60702,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60764,7 +60764,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60888,7 +60888,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60950,7 +60950,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61007,7 +61007,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61069,7 +61069,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61131,7 +61131,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61188,7 +61188,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61250,7 +61250,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61307,7 +61307,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34481-2023</t>
+          <t>A 13495-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45139</v>
+        <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,23 +1064,28 @@
           <t>ÅNGE</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>8.699999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1092,12 +1097,124 @@
         <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
         <v>24</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Fläckporing
+Gulporig ticka
+Knärot
+Ostticka
+Rynkskinn
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Garnlav
+Knottrig blåslav
+Kolflarnlav
+Lunglav
+Mörk kolflarnlav
+Stiftgelélav
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Vitgrynig nållav
+Dropptaggsvamp
+Mindre märgborre
+Skinnlav
+Sotlav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 13495-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 13495-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/knärot/A 13495-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 13495-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 13495-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 13495-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 13495-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 34481-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -1125,148 +1242,32 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 34481-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 34481-2023.png")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/knärot/A 34481-2023.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 34481-2023.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 34481-2023.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 34481-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 34481-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 13495-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45177</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>23</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Urskogsporing
-Fläckporing
-Gulporig ticka
-Knärot
-Rynkskinn
-Blanksvart spiklav
-Blågrå svartspik
-Dvärgbägarlav
-Garnlav
-Knottrig blåslav
-Kolflarnlav
-Lunglav
-Mörk kolflarnlav
-Stiftgelélav
-Vedflamlav
-Vedskivlav
-Vedtrappmossa
-Vitgrynig nållav
-Dropptaggsvamp
-Mindre märgborre
-Skinnlav
-Sotlav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 13495-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 13495-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/knärot/A 13495-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 13495-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 13495-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 13495-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 13495-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1391,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1603,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1708,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1812,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1920,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2027,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2133,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2239,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2340,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2645,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2745,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2845,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2940,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3039,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3143,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3242,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3341,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3444,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3542,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3639,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3741,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3838,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3939,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4040,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4137,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4233,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4333,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4429,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4520,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4611,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4702,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4888,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4983,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5173,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5263,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5358,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5456,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5550,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5644,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5733,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5827,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5925,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6023,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6121,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6219,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6317,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6415,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6503,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6596,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6684,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6777,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6870,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6958,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7045,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7137,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7224,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7311,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7398,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7490,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7586,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7678,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7774,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7870,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7961,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8057,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8143,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8229,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8320,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8411,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8497,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8588,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8674,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8769,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8855,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8946,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9041,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9127,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9218,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9309,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9400,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9486,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9577,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9663,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9754,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9845,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9935,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10025,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10115,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10200,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10285,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10375,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10465,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10559,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10644,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10738,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10823,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10917,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11007,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11092,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11182,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11276,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11370,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11464,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11558,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11643,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11737,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11827,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11912,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11997,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12087,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12177,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12267,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12361,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12451,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12508,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12565,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12622,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12679,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12736,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12798,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12855,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12917,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12979,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13036,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13093,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13155,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13212,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13269,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13326,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13388,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13445,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13502,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13564,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13621,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13683,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13740,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13802,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13859,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13921,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13983,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14040,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14097,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14154,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14216,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14273,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14330,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14387,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14444,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14501,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14558,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14615,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14672,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14729,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14786,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14843,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14900,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14957,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15014,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15076,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15138,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15195,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15252,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15309,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15366,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15423,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15480,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15537,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15594,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15656,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15713,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15775,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15837,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15894,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15956,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16013,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16070,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16127,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16184,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16241,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16298,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16355,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16412,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16474,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16536,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16593,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16655,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16717,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16779,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16841,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16898,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16955,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17017,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17079,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17136,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17193,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17250,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17307,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17369,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17431,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17488,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17550,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17607,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17664,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17726,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17788,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17845,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17902,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17959,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18016,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18073,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18130,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18187,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18249,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18306,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18363,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18420,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18482,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18539,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18596,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18658,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18715,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18777,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18834,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18891,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18948,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19005,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19062,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19124,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19181,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19238,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19295,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19357,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19419,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19476,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19533,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19590,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19647,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19704,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19761,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19818,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19875,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19932,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19994,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20056,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20118,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20195,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20252,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20309,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20366,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20423,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20485,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20547,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20604,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20661,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20718,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20780,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20837,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20894,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20956,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21013,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21070,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21127,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21184,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21241,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21298,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21355,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21412,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21469,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21526,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21588,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21645,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21707,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21769,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21831,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21888,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21950,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22007,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22064,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22121,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22178,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22235,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22292,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22349,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22406,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22468,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22525,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22582,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22639,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22696,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22758,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22815,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22877,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23058,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23120,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23177,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23234,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23291,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23353,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23410,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23467,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23524,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23581,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23638,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23700,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23762,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23824,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23881,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23938,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23995,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24057,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24114,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24171,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24228,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24285,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24347,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24404,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24461,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24518,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24575,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24632,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24689,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24746,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24803,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24860,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25150,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25207,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25264,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25321,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25378,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25435,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25497,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25559,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25616,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25678,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25735,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25792,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25849,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25906,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25963,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26020,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26077,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26134,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26191,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26248,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26305,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26362,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26419,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26476,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26538,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26600,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26662,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26724,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26786,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26848,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26905,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26962,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27024,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27081,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27138,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27195,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27252,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27314,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27371,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27428,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27490,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27547,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27604,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27666,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27728,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27790,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27847,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27904,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27966,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28023,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28080,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28137,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28194,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28256,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28318,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28375,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28432,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28831,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28888,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28945,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29002,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29059,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29116,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29178,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29235,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29292,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29354,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29416,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29478,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29535,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29592,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29649,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29706,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29763,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29825,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29882,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29944,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30001,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30063,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30120,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30177,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30234,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30296,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30353,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30410,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30467,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30524,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30586,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30648,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30705,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30767,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30824,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30881,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30938,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31000,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31057,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31139,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31196,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31253,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31310,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31367,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31424,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31481,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31538,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31595,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31657,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31714,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31771,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31828,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31885,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31942,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31999,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32061,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32123,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32185,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32247,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32309,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32366,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32423,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32480,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32542,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32599,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32656,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32713,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32770,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32832,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32894,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32951,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33008,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33065,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33127,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33189,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33251,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33308,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33365,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33422,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33479,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33536,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33593,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33650,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33707,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33769,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33826,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33883,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33940,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33997,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34054,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34111,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34168,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34225,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34282,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34339,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34396,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34453,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34510,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34567,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34624,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34681,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34738,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34795,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34852,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34909,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34966,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35028,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35085,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35147,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35204,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35261,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35318,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35375,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35432,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35489,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35546,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35603,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35660,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35717,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35774,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35831,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35888,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35945,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36002,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36059,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36116,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36178,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36235,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36292,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36349,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36411,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36473,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36530,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36587,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36644,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36701,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36763,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36825,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36882,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36939,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37001,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37063,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37120,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37177,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37234,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37291,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37348,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37405,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37462,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37519,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37576,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37633,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37695,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37752,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37814,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37876,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37938,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37995,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38057,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38119,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38181,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38238,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38295,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38352,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38414,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38471,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38528,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38590,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38647,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38704,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38761,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38818,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38880,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38937,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38994,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39051,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39108,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39165,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39222,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39279,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39336,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39393,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39455,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39517,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39574,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39631,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39688,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39745,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39807,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39869,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39931,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39988,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40050,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40112,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40169,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40226,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40283,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40345,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40402,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40459,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40516,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40573,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40630,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40687,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40744,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40801,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40858,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40920,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40977,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41034,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41091,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41148,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41205,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41262,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41319,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41376,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41433,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41490,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41547,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41604,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41661,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41723,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41780,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41837,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41899,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41956,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42018,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42080,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42137,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42199,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42256,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42313,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42370,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42427,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42484,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42541,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42598,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42655,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42717,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42774,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42831,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42888,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42945,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43002,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43059,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43116,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43173,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43230,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43292,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43349,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43406,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43463,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43520,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43577,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43639,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43721,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43778,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43840,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43902,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43959,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44016,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44073,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44135,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44197,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44259,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44316,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44373,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44435,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44492,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44554,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44616,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44673,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44735,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44797,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44854,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44911,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44968,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45025,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45087,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45144,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45201,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45263,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45320,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45382,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45444,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45506,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45568,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45625,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45687,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45749,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45811,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45873,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45935,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45997,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46059,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46116,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46178,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46235,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46297,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46359,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46416,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46498,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46555,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46612,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46674,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46736,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46798,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46860,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46917,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46979,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47036,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47098,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47155,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47217,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47274,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47331,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47393,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47450,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47512,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47569,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47631,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47693,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47750,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47807,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47869,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47926,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47988,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48050,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48112,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48174,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48236,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48293,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48350,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48412,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48469,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48531,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48593,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48650,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48712,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48769,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48826,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48888,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48945,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49007,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49069,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49131,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49193,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49250,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49312,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49369,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49431,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49493,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49555,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49617,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49679,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49741,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49798,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49855,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49912,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49969,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50031,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50088,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50145,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50202,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50264,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50321,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50378,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50440,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50502,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50564,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50626,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50688,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50745,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50802,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50864,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50921,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50983,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51045,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51102,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51159,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51216,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51273,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51330,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51392,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51449,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51506,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51563,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51620,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51682,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51744,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51806,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51868,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51930,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51992,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52054,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52111,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52173,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52235,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52297,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52354,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52416,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52473,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52535,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52597,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52654,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52711,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52768,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52830,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52892,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52949,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53011,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53073,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53135,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53192,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53254,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53316,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53378,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53440,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53502,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53564,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53621,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53683,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53740,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53802,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53864,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53926,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53988,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54050,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54107,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54169,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54226,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54283,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54340,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54402,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54464,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54521,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54578,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54635,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54692,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54749,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54811,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54873,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54930,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54987,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55044,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55106,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55168,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55230,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55292,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55349,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55411,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55468,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55530,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55587,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55649,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55706,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55763,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55820,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55877,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55934,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55996,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56058,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56120,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56182,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56244,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56306,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56368,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56430,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56492,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56554,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56616,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56673,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56735,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56797,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56854,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56916,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56978,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57040,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57102,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57159,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57216,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57273,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57335,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57392,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57449,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57506,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57563,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57620,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57677,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57734,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57791,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57853,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57915,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57977,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58034,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58096,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58158,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58215,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58277,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58339,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58401,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58463,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58525,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58587,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58649,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58711,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58768,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58825,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58887,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58944,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59006,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59068,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59130,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59192,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59254,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59311,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59368,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59425,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59482,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59539,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59596,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59658,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59715,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59777,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59839,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59901,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59963,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60025,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60087,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60149,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60211,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60273,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60335,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60397,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60459,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60521,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60583,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60645,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60702,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60764,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60826,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60888,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60950,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61007,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61069,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61131,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61188,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61250,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61307,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42775,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43060,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43117,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43174,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43231,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44374,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46060,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47275,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47632,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48532,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49008,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49313,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49370,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49432,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50322,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50503,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50746,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50803,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51450,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51507,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51564,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51621,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52950,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53441,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53865,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53927,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54284,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54341,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54750,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55107,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55293,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55350,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55412,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55469,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55588,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55650,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55707,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55764,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55821,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55878,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55935,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55997,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56059,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56183,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56369,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56431,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56555,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56617,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56674,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57041,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57103,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57160,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57217,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57274,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57336,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57393,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57450,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57564,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57735,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57792,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57916,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57978,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58035,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58278,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58340,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58464,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58588,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58650,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58712,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58769,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58826,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58888,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59007,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59193,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59255,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59369,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59597,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59716,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60026,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60088,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60150,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60212,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60274,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60336,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61189,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42775,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43060,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43117,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43174,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43231,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44374,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46060,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47275,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47632,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48532,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49008,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49313,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49370,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49432,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50322,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50503,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50746,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50803,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51450,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51507,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51564,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51621,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52950,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53441,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53865,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53927,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54284,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54341,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54750,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55107,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55293,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55350,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55412,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55469,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55588,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55650,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55707,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55764,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55821,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55878,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55935,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55997,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56059,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56183,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56369,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56431,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56555,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56617,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56674,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57041,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57103,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57160,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57217,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57274,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57336,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57393,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57450,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57564,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57735,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57792,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57916,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57978,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58035,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58278,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58340,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58464,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58588,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58650,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58712,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58769,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58826,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58888,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59007,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59193,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59255,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59369,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59597,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59716,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60026,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60088,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60150,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60212,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60274,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60336,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61189,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42775,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43060,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43117,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43174,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43231,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44374,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46060,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47275,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47632,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48532,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49008,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49313,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49370,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49432,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50322,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50503,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50746,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50803,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51450,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51507,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51564,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51621,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52950,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53441,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53865,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53927,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54284,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54341,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54750,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55107,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55293,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55350,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55412,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55469,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55588,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55650,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55707,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55764,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55821,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55878,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55935,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55997,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56059,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56183,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56369,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56431,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56555,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56617,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56674,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57041,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57103,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57160,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57217,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57274,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57336,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57393,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57450,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57564,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57735,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57792,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57916,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57978,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58035,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58278,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58340,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58464,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58588,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58650,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58712,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58769,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58826,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58888,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59007,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59193,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59255,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59369,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59597,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59716,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60026,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60088,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60150,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60212,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60274,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60336,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61189,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y955"/>
+  <dimension ref="A1:Y957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42775,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43060,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43117,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43174,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43231,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44374,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46060,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47275,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47632,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48532,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49008,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49313,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49370,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49432,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50322,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50503,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50746,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50803,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51450,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51507,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51564,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51621,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52950,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53441,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53865,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53927,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54284,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54341,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54750,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55107,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55293,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55350,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55412,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55469,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55588,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55650,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55707,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55764,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55821,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55878,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55935,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55997,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56059,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56183,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56369,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56431,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56555,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56617,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56674,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57041,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57103,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57160,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57217,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57274,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57336,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57393,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57450,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57564,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57735,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57792,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57916,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57978,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58035,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58278,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58340,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58464,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58588,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58650,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58712,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58769,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58826,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58888,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59007,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59193,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59255,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59369,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59597,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59716,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60026,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60088,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60150,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60212,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60274,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60336,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61189,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61298,7 +61298,7 @@
       </c>
       <c r="R954" s="2" t="inlineStr"/>
     </row>
-    <row r="955">
+    <row r="955" ht="15" customHeight="1">
       <c r="A955" t="inlineStr">
         <is>
           <t>A 40663-2023</t>
@@ -61308,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61354,6 +61354,125 @@
         <v>0</v>
       </c>
       <c r="R955" s="2" t="inlineStr"/>
+    </row>
+    <row r="956" ht="15" customHeight="1">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>A 42346-2023</t>
+        </is>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C956" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G956" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0</v>
+      </c>
+      <c r="I956" t="n">
+        <v>0</v>
+      </c>
+      <c r="J956" t="n">
+        <v>0</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>0</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" s="2" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>A 42506-2023</t>
+        </is>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C957" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G957" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0</v>
+      </c>
+      <c r="I957" t="n">
+        <v>0</v>
+      </c>
+      <c r="J957" t="n">
+        <v>0</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>0</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y957"/>
+  <dimension ref="A1:Y958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45105</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43409</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43867</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44019</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44114</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44230</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44424</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44483</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44699</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44854</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44883</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42081,7 +42081,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42138,7 +42138,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42775,7 +42775,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42832,7 +42832,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43060,7 +43060,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43117,7 +43117,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43174,7 +43174,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43231,7 +43231,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44374,7 +44374,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45569,7 +45569,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45626,7 +45626,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46060,7 +46060,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47275,7 +47275,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47632,7 +47632,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48532,7 +48532,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49008,7 +49008,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49313,7 +49313,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49370,7 +49370,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49432,7 +49432,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50322,7 +50322,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50503,7 +50503,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50746,7 +50746,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50803,7 +50803,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51450,7 +51450,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51507,7 +51507,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51564,7 +51564,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51621,7 +51621,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51683,7 +51683,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52236,7 +52236,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52950,7 +52950,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53441,7 +53441,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53865,7 +53865,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53927,7 +53927,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54284,7 +54284,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54341,7 +54341,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54750,7 +54750,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55107,7 +55107,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55293,7 +55293,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55350,7 +55350,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55412,7 +55412,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55469,7 +55469,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55588,7 +55588,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55650,7 +55650,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55707,7 +55707,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55764,7 +55764,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55821,7 +55821,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55878,7 +55878,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55935,7 +55935,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55997,7 +55997,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56059,7 +56059,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56183,7 +56183,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56369,7 +56369,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56431,7 +56431,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56555,7 +56555,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56617,7 +56617,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56674,7 +56674,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57041,7 +57041,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57103,7 +57103,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57160,7 +57160,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57217,7 +57217,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57274,7 +57274,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57336,7 +57336,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57393,7 +57393,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57450,7 +57450,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57564,7 +57564,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57735,7 +57735,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57792,7 +57792,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57916,7 +57916,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57978,7 +57978,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58035,7 +58035,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58278,7 +58278,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58340,7 +58340,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58464,7 +58464,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58588,7 +58588,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58650,7 +58650,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58712,7 +58712,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58769,7 +58769,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58826,7 +58826,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58888,7 +58888,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59007,7 +59007,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59193,7 +59193,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59255,7 +59255,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59369,7 +59369,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59597,7 +59597,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59716,7 +59716,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60026,7 +60026,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60088,7 +60088,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60150,7 +60150,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60212,7 +60212,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60274,7 +60274,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60336,7 +60336,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61189,7 +61189,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61365,7 +61365,7 @@
         <v>45180</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61412,7 +61412,7 @@
       </c>
       <c r="R956" s="2" t="inlineStr"/>
     </row>
-    <row r="957">
+    <row r="957" ht="15" customHeight="1">
       <c r="A957" t="inlineStr">
         <is>
           <t>A 42506-2023</t>
@@ -61422,7 +61422,7 @@
         <v>45180</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61473,6 +61473,63 @@
         <v>0</v>
       </c>
       <c r="R957" s="2" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>A 43096-2023</t>
+        </is>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C958" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G958" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="n">
+        <v>0</v>
+      </c>
+      <c r="J958" t="n">
+        <v>0</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>0</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43900</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44860</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44600</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44057</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44161</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44635</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44656</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45086</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44792</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43881</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44985</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45071</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43697</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44214</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44733</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44853</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44952</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44774</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44860</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45006</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45112</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43861</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44285</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44609</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44622</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45072</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45112</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43656</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43684</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43856</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44113</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44146</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44812</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44853</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44853</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44883</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45076</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45105</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43409</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43549</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>43963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44019</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44068</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44114</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44167</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44424</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44439</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>44473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44496</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>44699</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44819</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44854</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>45139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>45148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>43334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>43334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>43336</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>43340</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>43375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>43376</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43383</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43402</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43409</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43410</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>43410</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>43411</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43412</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43412</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43412</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>43413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43413</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43416</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>43420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>43424</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43430</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>43432</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>43433</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>43434</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>43440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>43441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>43446</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>43447</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>43453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>43455</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>43455</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>43467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>43469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>43479</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>43479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>43479</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43483</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43486</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43493</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43493</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43493</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43501</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>43521</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>43531</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>43535</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>43535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>43535</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43538</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43542</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43543</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>43546</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43552</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43552</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43552</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43553</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>43553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43563</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>43564</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>43564</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>43564</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43570</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43570</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>43571</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>43571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43579</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43581</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43585</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43600</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43601</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43607</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43612</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>43614</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43619</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43627</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43627</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43633</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>43633</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>43640</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>43642</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>43647</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>43650</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43650</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43654</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>43670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>43679</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>43682</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43684</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>43684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>43684</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>43685</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>43690</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43700</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43706</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>43728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>43734</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43734</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>43735</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21890,7 +21890,7 @@
         <v>43738</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>43738</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>43739</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>43741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>43741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>43742</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>43746</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43746</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43747</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43752</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43752</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43756</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43760</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43760</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43760</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43761</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>43761</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>43761</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>43762</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43766</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43766</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43773</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43773</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43774</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43774</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43774</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43783</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>43783</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>43787</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>43787</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>43788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>43789</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>43790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>43794</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>43794</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>43794</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>43795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>43795</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>43795</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>43801</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>43805</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>43805</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>43805</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>43815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>43818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>43819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>43830</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>43830</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>43832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>43837</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>43838</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>43847</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>43853</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>43853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>43856</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>43857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>43858</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>43859</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>43864</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>43866</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>43867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>43867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>43867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>43872</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>43875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>43875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>43886</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>43886</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>43889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>43899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>43902</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>43908</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>43914</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>43921</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>43921</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>43936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>43941</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>43943</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>43944</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>43944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>43951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>43957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43959</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43959</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43964</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43969</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>43976</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>43976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>43976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>43978</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>43978</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>43978</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>43980</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>43987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>43992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>43997</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>44000</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>44000</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>44006</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>44011</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>44013</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44014</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44014</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44015</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44015</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>44019</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44025</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44029</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44032</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44032</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>44035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>44036</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44039</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44062</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44062</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44063</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44064</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44071</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44076</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>44077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>44090</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>44091</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44095</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44095</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44103</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>44106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44109</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44109</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>44109</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>44111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>44113</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>44113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>44114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>44118</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44118</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31887,7 +31887,7 @@
         <v>44118</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44120</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>44120</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>44124</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>44126</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>44139</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>44147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44151</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44152</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44155</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32834,7 +32834,7 @@
         <v>44161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32953,7 +32953,7 @@
         <v>44169</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33010,7 +33010,7 @@
         <v>44172</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         <v>44172</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44172</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44173</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44175</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44186</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44193</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44214</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44217</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44235</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44236</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44238</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>44242</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>44251</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>44257</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>44265</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>44272</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44273</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44273</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>44280</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>44293</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>44299</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>44305</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>44305</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>44305</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>44308</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>44312</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44313</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44323</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44326</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44326</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44328</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>44336</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>44340</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44340</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44341</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>44341</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>44347</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44354</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44354</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44354</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44358</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44358</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36061,7 +36061,7 @@
         <v>44361</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>44363</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>44364</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>44364</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44368</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44369</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44369</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44377</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44379</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44379</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44382</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>44393</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>44393</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>44397</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>44399</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>44399</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>44399</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>44411</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>44417</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>44431</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>44433</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>44435</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44439</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44439</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>44441</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44441</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44452</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38121,7 +38121,7 @@
         <v>44453</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44453</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44454</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44457</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44459</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44460</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>44460</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>44461</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44461</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44466</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44466</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44469</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44469</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44473</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44475</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44477</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44477</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44483</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44489</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44494</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44494</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39519,7 +39519,7 @@
         <v>44495</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44502</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44502</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44503</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39809,7 +39809,7 @@
         <v>44503</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>44508</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>44509</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>44512</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>44515</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>44523</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40347,7 +40347,7 @@
         <v>44524</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40404,7 +40404,7 @@
         <v>44524</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44524</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40518,7 +40518,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44532</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44537</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44538</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40746,7 +40746,7 @@
         <v>44538</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40803,7 +40803,7 @@
         <v>44538</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40860,7 +40860,7 @@
         <v>44574</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>44592</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40979,7 +40979,7 @@
         <v>44594</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44595</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>44595</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41150,7 +41150,7 @@
         <v>44599</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>44599</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>44599</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41321,7 +41321,7 @@
         <v>44600</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44601</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44607</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44614</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44616</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44617</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44622</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41725,7 +41725,7 @@
         <v>44622</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41782,7 +41782,7 @@
         <v>44624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41839,7 +41839,7 @@
         <v>44627</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41901,7 +41901,7 @@
         <v>44628</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44634</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44635</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44641</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>44642</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44644</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44648</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44649</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44649</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44649</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44651</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44651</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44656</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44656</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>44656</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42890,7 +42890,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>44657</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>44664</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44665</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44665</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>44676</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44679</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44679</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>44683</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>44686</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>44686</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>44686</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44690</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>44691</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>44691</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>44692</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>44698</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>44699</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>44701</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>44705</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>44726</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>44728</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44261,7 +44261,7 @@
         <v>44733</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>44734</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>44739</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>44750</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>44757</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>44774</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>44776</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>44783</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>44783</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>44785</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44785</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>44791</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45203,7 +45203,7 @@
         <v>44796</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>44796</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45322,7 +45322,7 @@
         <v>44798</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44798</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44798</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45508,7 +45508,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45689,7 +45689,7 @@
         <v>44805</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>44805</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44813</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44813</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44817</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46061,7 +46061,7 @@
         <v>44818</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46118,7 +46118,7 @@
         <v>44818</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46180,7 +46180,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46237,7 +46237,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>44819</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46361,7 +46361,7 @@
         <v>44825</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>44827</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44832</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44833</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44837</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44841</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44841</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46800,7 +46800,7 @@
         <v>44844</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46862,7 +46862,7 @@
         <v>44845</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46919,7 +46919,7 @@
         <v>44845</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46981,7 +46981,7 @@
         <v>44846</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47038,7 +47038,7 @@
         <v>44847</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47100,7 +47100,7 @@
         <v>44852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47157,7 +47157,7 @@
         <v>44858</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44860</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44861</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44866</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         <v>44866</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44866</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47514,7 +47514,7 @@
         <v>44868</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44868</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>44868</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>44869</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>44872</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47809,7 +47809,7 @@
         <v>44872</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44872</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44873</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44875</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>44879</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>44879</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48238,7 +48238,7 @@
         <v>44880</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48295,7 +48295,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>44882</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48533,7 +48533,7 @@
         <v>44886</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48595,7 +48595,7 @@
         <v>44887</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>44888</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48714,7 +48714,7 @@
         <v>44888</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48771,7 +48771,7 @@
         <v>44888</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48828,7 +48828,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48890,7 +48890,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48947,7 +48947,7 @@
         <v>44889</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49009,7 +49009,7 @@
         <v>44889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49071,7 +49071,7 @@
         <v>44890</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49133,7 +49133,7 @@
         <v>44893</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>44894</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>44894</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49314,7 +49314,7 @@
         <v>44894</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49371,7 +49371,7 @@
         <v>44895</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44895</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49495,7 +49495,7 @@
         <v>44895</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>44896</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49619,7 +49619,7 @@
         <v>44896</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49681,7 +49681,7 @@
         <v>44896</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49743,7 +49743,7 @@
         <v>44897</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49800,7 +49800,7 @@
         <v>44907</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49857,7 +49857,7 @@
         <v>44910</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49914,7 +49914,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49971,7 +49971,7 @@
         <v>44914</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50033,7 +50033,7 @@
         <v>44929</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44929</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50147,7 +50147,7 @@
         <v>44929</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50204,7 +50204,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50266,7 +50266,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50323,7 +50323,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50380,7 +50380,7 @@
         <v>44930</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50442,7 +50442,7 @@
         <v>44930</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50504,7 +50504,7 @@
         <v>44930</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>44938</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44940</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>44945</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         <v>44945</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>44945</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>44952</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51275,7 +51275,7 @@
         <v>44953</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51332,7 +51332,7 @@
         <v>44957</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>44958</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>44958</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>44964</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>44964</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>44966</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>44966</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51994,7 +51994,7 @@
         <v>44971</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44971</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44971</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52237,7 +52237,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52299,7 +52299,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52356,7 +52356,7 @@
         <v>44972</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52418,7 +52418,7 @@
         <v>44977</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52475,7 +52475,7 @@
         <v>44977</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52537,7 +52537,7 @@
         <v>44978</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52599,7 +52599,7 @@
         <v>44980</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>44980</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>44980</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52770,7 +52770,7 @@
         <v>44985</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52832,7 +52832,7 @@
         <v>44985</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44985</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44987</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53013,7 +53013,7 @@
         <v>44988</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53075,7 +53075,7 @@
         <v>44993</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>44993</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45000</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53256,7 +53256,7 @@
         <v>45000</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53318,7 +53318,7 @@
         <v>45000</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53380,7 +53380,7 @@
         <v>45002</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53442,7 +53442,7 @@
         <v>45002</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53504,7 +53504,7 @@
         <v>45006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53566,7 +53566,7 @@
         <v>45009</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53623,7 +53623,7 @@
         <v>45009</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         <v>45009</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53742,7 +53742,7 @@
         <v>45013</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53804,7 +53804,7 @@
         <v>45013</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53866,7 +53866,7 @@
         <v>45015</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53928,7 +53928,7 @@
         <v>45015</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53990,7 +53990,7 @@
         <v>45028</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54052,7 +54052,7 @@
         <v>45028</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54109,7 +54109,7 @@
         <v>45028</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>45030</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45030</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45030</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         <v>45033</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         <v>45033</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54580,7 +54580,7 @@
         <v>45033</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>45034</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45034</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54751,7 +54751,7 @@
         <v>45036</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54813,7 +54813,7 @@
         <v>45036</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45037</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45040</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45040</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55170,7 +55170,7 @@
         <v>45040</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45041</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55294,7 +55294,7 @@
         <v>45042</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55351,7 +55351,7 @@
         <v>45042</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         <v>45048</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55470,7 +55470,7 @@
         <v>45050</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55532,7 +55532,7 @@
         <v>45051</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55589,7 +55589,7 @@
         <v>45051</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55651,7 +55651,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55708,7 +55708,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55765,7 +55765,7 @@
         <v>45054</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45055</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55879,7 +55879,7 @@
         <v>45055</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55936,7 +55936,7 @@
         <v>45057</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55998,7 +55998,7 @@
         <v>45057</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56060,7 +56060,7 @@
         <v>45058</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56122,7 +56122,7 @@
         <v>45058</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56184,7 +56184,7 @@
         <v>45058</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56246,7 +56246,7 @@
         <v>45062</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56308,7 +56308,7 @@
         <v>45063</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56370,7 +56370,7 @@
         <v>45063</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56556,7 +56556,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56618,7 +56618,7 @@
         <v>45070</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56675,7 +56675,7 @@
         <v>45072</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56737,7 +56737,7 @@
         <v>45075</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56799,7 +56799,7 @@
         <v>45075</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56856,7 +56856,7 @@
         <v>45075</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56918,7 +56918,7 @@
         <v>45077</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56980,7 +56980,7 @@
         <v>45077</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57042,7 +57042,7 @@
         <v>45078</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57104,7 +57104,7 @@
         <v>45078</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57161,7 +57161,7 @@
         <v>45078</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57218,7 +57218,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57275,7 +57275,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57337,7 +57337,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57394,7 +57394,7 @@
         <v>45079</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57451,7 +57451,7 @@
         <v>45084</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57508,7 +57508,7 @@
         <v>45084</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57565,7 +57565,7 @@
         <v>45085</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57622,7 +57622,7 @@
         <v>45085</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57679,7 +57679,7 @@
         <v>45085</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57736,7 +57736,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57793,7 +57793,7 @@
         <v>45089</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57855,7 +57855,7 @@
         <v>45091</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57917,7 +57917,7 @@
         <v>45091</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         <v>45092</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58036,7 +58036,7 @@
         <v>45092</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58098,7 +58098,7 @@
         <v>45093</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58160,7 +58160,7 @@
         <v>45099</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58217,7 +58217,7 @@
         <v>45099</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58279,7 +58279,7 @@
         <v>45102</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58341,7 +58341,7 @@
         <v>45102</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58403,7 +58403,7 @@
         <v>45103</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58465,7 +58465,7 @@
         <v>45105</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58527,7 +58527,7 @@
         <v>45105</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58589,7 +58589,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58651,7 +58651,7 @@
         <v>45106</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58713,7 +58713,7 @@
         <v>45107</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58770,7 +58770,7 @@
         <v>45111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58827,7 +58827,7 @@
         <v>45112</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58889,7 +58889,7 @@
         <v>45112</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45114</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59070,7 +59070,7 @@
         <v>45114</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59132,7 +59132,7 @@
         <v>45117</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59194,7 +59194,7 @@
         <v>45124</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59256,7 +59256,7 @@
         <v>45133</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59313,7 +59313,7 @@
         <v>45133</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59370,7 +59370,7 @@
         <v>45134</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59427,7 +59427,7 @@
         <v>45138</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59484,7 +59484,7 @@
         <v>45139</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59541,7 +59541,7 @@
         <v>45139</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59598,7 +59598,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59660,7 +59660,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59717,7 +59717,7 @@
         <v>45140</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         <v>45140</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59841,7 +59841,7 @@
         <v>45141</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59903,7 +59903,7 @@
         <v>45141</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59965,7 +59965,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60027,7 +60027,7 @@
         <v>45142</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60089,7 +60089,7 @@
         <v>45145</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60151,7 +60151,7 @@
         <v>45145</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60213,7 +60213,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60275,7 +60275,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60337,7 +60337,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45147</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45147</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60585,7 +60585,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60647,7 +60647,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60704,7 +60704,7 @@
         <v>45153</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60766,7 +60766,7 @@
         <v>45153</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60828,7 +60828,7 @@
         <v>45159</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60890,7 +60890,7 @@
         <v>45159</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60952,7 +60952,7 @@
         <v>45162</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61009,7 +61009,7 @@
         <v>45162</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61071,7 +61071,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61133,7 +61133,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61190,7 +61190,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61252,7 +61252,7 @@
         <v>45167</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61309,7 +61309,7 @@
         <v>45169</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61366,7 +61366,7 @@
         <v>45180</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61423,7 +61423,7 @@
         <v>45180</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61485,7 +61485,7 @@
         <v>45182</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45187</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43900</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43614</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44860</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44600</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44057</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>44427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44635</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44656</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44845</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45086</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>44792</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>45005</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43881</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44985</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45071</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>44214</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44699</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44733</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>44174</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44217</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44952</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45187</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44160</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>44774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44860</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45006</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>45112</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43899</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>44120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>44285</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44354</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44609</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44622</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44971</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>45072</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>45091</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>45099</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45112</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43496</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43656</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43684</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43856</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44113</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44146</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44500</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44503</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>44571</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44812</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44853</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44853</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44883</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45076</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45105</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43409</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43549</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43867</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43937</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>43963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44019</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44068</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44114</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44230</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44439</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44473</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44483</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44496</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44500</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44500</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44539</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>44699</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44819</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44854</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44964</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45072</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45139</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>45148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43336</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43340</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43376</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43383</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43402</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43402</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43404</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43404</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>43410</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43411</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43411</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43413</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43416</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>43416</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>43417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43419</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43420</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43420</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43424</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43424</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43430</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43432</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43433</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43440</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43441</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43446</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43447</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43447</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43447</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>43447</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>43453</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43453</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43455</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43455</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43455</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43467</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43469</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43469</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43479</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43479</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43479</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>43482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>43483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43486</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43493</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43493</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43493</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43496</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>43496</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>43501</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43501</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43538</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43542</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43543</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>43546</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43551</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43552</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43552</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43552</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>43553</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43553</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>43557</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43558</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>43564</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43564</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43564</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43564</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43565</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43570</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43570</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>43571</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>43571</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43572</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43579</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43581</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43581</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>43581</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>43585</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>43592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>43593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>43606</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>43607</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>43614</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>43627</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>43627</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>43627</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>43627</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>43628</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>43633</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>43633</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>43642</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>43647</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>43654</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>43664</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>43670</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43679</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>43682</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>43683</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>43684</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>43684</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>43684</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>43685</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>43690</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>43696</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>43697</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>43706</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>43706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>43706</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>43706</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43706</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43707</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43710</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>43728</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43734</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>43738</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>43741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>43741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>43742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>43746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>43746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>43747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>43749</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>43752</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>43752</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>43756</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>43760</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>43760</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>43760</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>43760</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>43761</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>43761</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>43761</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>43762</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>43766</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>43766</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>43773</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>43773</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>43774</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>43774</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>43774</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>43781</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>43781</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>43781</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>43783</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>43783</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>43787</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>43787</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>43788</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>43789</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>43790</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>43794</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>43794</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>43794</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>43794</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>43794</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>43795</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>43795</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>43795</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>43801</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>43801</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>43801</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>43801</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>43805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>43805</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>43805</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>43805</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>43805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>43815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>43818</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>43819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>43830</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>43830</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>43832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>43837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>43838</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25915,7 +25915,7 @@
         <v>43847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>43853</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>43853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>43856</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>43857</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>43858</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>43859</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>43864</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>43866</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>43867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>43867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>43867</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>43867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>43867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>43872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>43875</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>43875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>43886</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>43886</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>43889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>43899</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>43899</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>43902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>43908</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>43914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>43914</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>43921</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>43921</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>43943</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>43944</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>43944</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>43949</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>43951</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>43957</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>43959</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>43959</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>43963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>43963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>43964</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>43964</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>43966</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>43969</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>43976</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>43976</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>43976</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>43978</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>43978</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>43978</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>43980</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>43992</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>43997</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44000</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44000</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44006</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>44011</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44013</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>44014</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>44014</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>44015</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44015</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>44019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44025</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>44029</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>44029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44032</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44032</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>44035</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44035</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44036</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44039</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30362,7 +30362,7 @@
         <v>44062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>44062</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>44063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>44064</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44071</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44076</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44077</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>44078</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>44090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>44091</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>44095</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>44095</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>44106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44109</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44109</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>44114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>44118</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>44118</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>44118</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44118</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>44120</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44120</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>44120</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>44120</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44124</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44126</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44126</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44130</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44139</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44147</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44151</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44152</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44155</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44169</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>44172</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>44172</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>44172</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>44173</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>44173</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>44175</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44186</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>44187</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>44187</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>44193</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>44214</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44217</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44235</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44238</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44242</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44251</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44257</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44265</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44272</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44273</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44273</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44280</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44293</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44299</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44305</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44305</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>44305</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44308</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>44312</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>44313</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>44320</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>44323</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44326</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44326</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44328</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44340</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44340</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44341</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44341</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44347</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44354</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>44354</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44354</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>44358</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44358</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36301,7 +36301,7 @@
         <v>44358</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36358,7 +36358,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36415,7 +36415,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>44363</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>44368</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44369</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>44369</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>44377</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>44379</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>44379</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37000,7 +37000,7 @@
         <v>44382</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>44383</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>44383</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>44384</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>44393</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>44393</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44397</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44399</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>44399</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>44399</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>44406</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>44411</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>44431</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>44433</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>44435</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>44439</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>44439</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>44441</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>44441</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>44441</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44452</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44453</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>44453</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44454</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44456</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>44456</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44457</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44459</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44460</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>44460</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>44461</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39003,7 +39003,7 @@
         <v>44461</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39060,7 +39060,7 @@
         <v>44466</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44466</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>44469</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>44469</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>44473</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>44475</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>44477</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>44477</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>44482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>44483</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>44489</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>44494</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>44494</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44495</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>44501</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39930,7 +39930,7 @@
         <v>44502</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         <v>44502</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40044,7 +40044,7 @@
         <v>44503</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>44503</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44508</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44509</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44512</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40349,7 +40349,7 @@
         <v>44515</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44515</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44518</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44519</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>44523</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44524</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44524</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44524</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44529</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44532</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44537</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44538</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44538</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44538</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44574</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44592</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44594</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41333,7 +41333,7 @@
         <v>44595</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>44595</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41447,7 +41447,7 @@
         <v>44599</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>44599</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>44599</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>44600</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>44601</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>44607</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>44614</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41846,7 +41846,7 @@
         <v>44616</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41903,7 +41903,7 @@
         <v>44617</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         <v>44622</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>44622</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>44624</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>44627</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42198,7 +42198,7 @@
         <v>44628</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>44634</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42317,7 +42317,7 @@
         <v>44635</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42379,7 +42379,7 @@
         <v>44641</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42436,7 +42436,7 @@
         <v>44642</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42498,7 +42498,7 @@
         <v>44644</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42555,7 +42555,7 @@
         <v>44648</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42612,7 +42612,7 @@
         <v>44649</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         <v>44649</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42726,7 +42726,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         <v>44651</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>44651</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42897,7 +42897,7 @@
         <v>44651</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>44652</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>44656</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>44656</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>44656</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44656</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>44656</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>44657</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>44664</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>44665</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>44665</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43529,7 +43529,7 @@
         <v>44676</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>44679</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>44679</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>44683</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>44686</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>44686</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>44686</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>44690</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44020,7 +44020,7 @@
         <v>44691</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44077,7 +44077,7 @@
         <v>44691</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44139,7 +44139,7 @@
         <v>44692</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44698</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44699</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44701</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44705</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>44726</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>44728</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44558,7 +44558,7 @@
         <v>44733</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44615,7 +44615,7 @@
         <v>44734</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44672,7 +44672,7 @@
         <v>44739</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>44750</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>44755</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44757</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>44764</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>44774</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>44774</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>44776</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>44783</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>44783</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>44785</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45324,7 +45324,7 @@
         <v>44785</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>44788</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45443,7 +45443,7 @@
         <v>44791</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45500,7 +45500,7 @@
         <v>44796</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>44796</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45619,7 +45619,7 @@
         <v>44798</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45681,7 +45681,7 @@
         <v>44798</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45743,7 +45743,7 @@
         <v>44798</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>44798</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>44798</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>44798</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>44805</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>44805</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44813</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44813</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>44817</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46296,7 +46296,7 @@
         <v>44817</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44818</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44818</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>44818</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>44819</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44825</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44827</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>44832</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>44833</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>44837</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46973,7 +46973,7 @@
         <v>44841</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44841</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>44844</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47159,7 +47159,7 @@
         <v>44845</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47216,7 +47216,7 @@
         <v>44845</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>44846</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>44847</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47397,7 +47397,7 @@
         <v>44852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47454,7 +47454,7 @@
         <v>44858</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47516,7 +47516,7 @@
         <v>44860</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47573,7 +47573,7 @@
         <v>44861</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>44866</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>44866</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47811,7 +47811,7 @@
         <v>44868</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
         <v>44868</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47930,7 +47930,7 @@
         <v>44868</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47992,7 +47992,7 @@
         <v>44869</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48049,7 +48049,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48106,7 +48106,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48225,7 +48225,7 @@
         <v>44872</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>44873</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48349,7 +48349,7 @@
         <v>44875</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>44879</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48535,7 +48535,7 @@
         <v>44880</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>44881</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>44882</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48711,7 +48711,7 @@
         <v>44883</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48768,7 +48768,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48830,7 +48830,7 @@
         <v>44886</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44887</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44888</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
         <v>44888</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49068,7 +49068,7 @@
         <v>44888</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49125,7 +49125,7 @@
         <v>44888</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49187,7 +49187,7 @@
         <v>44888</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44889</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44889</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44890</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44893</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49492,7 +49492,7 @@
         <v>44894</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49549,7 +49549,7 @@
         <v>44894</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49611,7 +49611,7 @@
         <v>44894</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49668,7 +49668,7 @@
         <v>44895</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49730,7 +49730,7 @@
         <v>44895</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49792,7 +49792,7 @@
         <v>44895</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49854,7 +49854,7 @@
         <v>44896</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>44896</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>44896</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50040,7 +50040,7 @@
         <v>44897</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50097,7 +50097,7 @@
         <v>44907</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50154,7 +50154,7 @@
         <v>44910</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>44914</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50268,7 +50268,7 @@
         <v>44914</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>44929</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>44929</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         <v>44929</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>44929</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>44929</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>44929</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>44930</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         <v>44930</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50801,7 +50801,7 @@
         <v>44930</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50863,7 +50863,7 @@
         <v>44930</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50925,7 +50925,7 @@
         <v>44935</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>44938</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>44940</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>44945</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>44945</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>44945</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51282,7 +51282,7 @@
         <v>44945</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51344,7 +51344,7 @@
         <v>44945</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51401,7 +51401,7 @@
         <v>44950</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51458,7 +51458,7 @@
         <v>44950</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51515,7 +51515,7 @@
         <v>44952</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51572,7 +51572,7 @@
         <v>44953</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51629,7 +51629,7 @@
         <v>44957</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51691,7 +51691,7 @@
         <v>44958</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51748,7 +51748,7 @@
         <v>44958</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51805,7 +51805,7 @@
         <v>44964</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51862,7 +51862,7 @@
         <v>44964</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51919,7 +51919,7 @@
         <v>44966</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51981,7 +51981,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52043,7 +52043,7 @@
         <v>44966</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52105,7 +52105,7 @@
         <v>44966</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52167,7 +52167,7 @@
         <v>44966</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52229,7 +52229,7 @@
         <v>44966</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>44971</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52353,7 +52353,7 @@
         <v>44971</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52410,7 +52410,7 @@
         <v>44971</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52472,7 +52472,7 @@
         <v>44971</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52534,7 +52534,7 @@
         <v>44971</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>44971</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52653,7 +52653,7 @@
         <v>44972</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52715,7 +52715,7 @@
         <v>44977</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52772,7 +52772,7 @@
         <v>44977</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>44978</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52896,7 +52896,7 @@
         <v>44980</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52953,7 +52953,7 @@
         <v>44980</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>44980</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>44985</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>44985</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>44985</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>44987</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>44988</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53372,7 +53372,7 @@
         <v>44993</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53434,7 +53434,7 @@
         <v>44993</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53491,7 +53491,7 @@
         <v>45000</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53553,7 +53553,7 @@
         <v>45000</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53615,7 +53615,7 @@
         <v>45000</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53677,7 +53677,7 @@
         <v>45002</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53739,7 +53739,7 @@
         <v>45002</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53801,7 +53801,7 @@
         <v>45006</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>45009</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>45009</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53982,7 +53982,7 @@
         <v>45009</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54039,7 +54039,7 @@
         <v>45013</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54101,7 +54101,7 @@
         <v>45013</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>45015</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54225,7 +54225,7 @@
         <v>45015</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54287,7 +54287,7 @@
         <v>45028</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>45028</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54406,7 +54406,7 @@
         <v>45028</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54468,7 +54468,7 @@
         <v>45028</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54525,7 +54525,7 @@
         <v>45030</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54582,7 +54582,7 @@
         <v>45030</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54639,7 +54639,7 @@
         <v>45030</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45030</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54763,7 +54763,7 @@
         <v>45033</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54820,7 +54820,7 @@
         <v>45033</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54877,7 +54877,7 @@
         <v>45033</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54934,7 +54934,7 @@
         <v>45034</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54991,7 +54991,7 @@
         <v>45034</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55048,7 +55048,7 @@
         <v>45036</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55110,7 +55110,7 @@
         <v>45036</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55172,7 +55172,7 @@
         <v>45037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55229,7 +55229,7 @@
         <v>45037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55286,7 +55286,7 @@
         <v>45037</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55343,7 +55343,7 @@
         <v>45040</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55405,7 +55405,7 @@
         <v>45040</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55467,7 +55467,7 @@
         <v>45040</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>45041</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55591,7 +55591,7 @@
         <v>45042</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55648,7 +55648,7 @@
         <v>45042</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55710,7 +55710,7 @@
         <v>45048</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55767,7 +55767,7 @@
         <v>45050</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45051</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45051</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45051</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45054</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45055</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45055</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45057</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56295,7 +56295,7 @@
         <v>45057</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45058</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56419,7 +56419,7 @@
         <v>45058</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56481,7 +56481,7 @@
         <v>45058</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56543,7 +56543,7 @@
         <v>45062</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56605,7 +56605,7 @@
         <v>45063</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56667,7 +56667,7 @@
         <v>45063</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56729,7 +56729,7 @@
         <v>45063</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56791,7 +56791,7 @@
         <v>45063</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         <v>45063</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56915,7 +56915,7 @@
         <v>45070</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56972,7 +56972,7 @@
         <v>45072</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57034,7 +57034,7 @@
         <v>45075</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>45075</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>45075</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>45077</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>45077</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>45078</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57401,7 +57401,7 @@
         <v>45078</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57458,7 +57458,7 @@
         <v>45078</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>45078</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>45078</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>45078</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>45079</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>45084</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45084</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57862,7 +57862,7 @@
         <v>45085</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57919,7 +57919,7 @@
         <v>45085</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57976,7 +57976,7 @@
         <v>45085</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58033,7 +58033,7 @@
         <v>45085</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58090,7 +58090,7 @@
         <v>45089</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58152,7 +58152,7 @@
         <v>45091</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58214,7 +58214,7 @@
         <v>45091</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>45092</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58333,7 +58333,7 @@
         <v>45093</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58395,7 +58395,7 @@
         <v>45099</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58452,7 +58452,7 @@
         <v>45099</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>45102</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58576,7 +58576,7 @@
         <v>45102</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58638,7 +58638,7 @@
         <v>45103</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58700,7 +58700,7 @@
         <v>45105</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58762,7 +58762,7 @@
         <v>45105</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58824,7 +58824,7 @@
         <v>45105</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58886,7 +58886,7 @@
         <v>45106</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58948,7 +58948,7 @@
         <v>45107</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59005,7 +59005,7 @@
         <v>45111</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59062,7 +59062,7 @@
         <v>45112</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59124,7 +59124,7 @@
         <v>45112</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>45112</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59243,7 +59243,7 @@
         <v>45114</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59305,7 +59305,7 @@
         <v>45114</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59367,7 +59367,7 @@
         <v>45117</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59429,7 +59429,7 @@
         <v>45124</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         <v>45133</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59548,7 +59548,7 @@
         <v>45133</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59605,7 +59605,7 @@
         <v>45134</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45138</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45139</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45139</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59833,7 +59833,7 @@
         <v>45139</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59895,7 +59895,7 @@
         <v>45139</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59952,7 +59952,7 @@
         <v>45140</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60014,7 +60014,7 @@
         <v>45140</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45141</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45141</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45141</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45142</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60324,7 +60324,7 @@
         <v>45145</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         <v>45145</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60448,7 +60448,7 @@
         <v>45145</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60510,7 +60510,7 @@
         <v>45145</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60572,7 +60572,7 @@
         <v>45145</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60634,7 +60634,7 @@
         <v>45145</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60696,7 +60696,7 @@
         <v>45147</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60758,7 +60758,7 @@
         <v>45147</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60820,7 +60820,7 @@
         <v>45147</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60882,7 +60882,7 @@
         <v>45148</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60939,7 +60939,7 @@
         <v>45153</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61001,7 +61001,7 @@
         <v>45153</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61063,7 +61063,7 @@
         <v>45159</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61125,7 +61125,7 @@
         <v>45159</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61187,7 +61187,7 @@
         <v>45162</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61244,7 +61244,7 @@
         <v>45162</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61306,7 +61306,7 @@
         <v>45162</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>45162</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61425,7 +61425,7 @@
         <v>45162</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45167</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61544,7 +61544,7 @@
         <v>45169</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61601,7 +61601,7 @@
         <v>45180</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61658,7 +61658,7 @@
         <v>45180</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45182</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>

--- a/Översikt ÅNGE.xlsx
+++ b/Översikt ÅNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y960"/>
+  <dimension ref="A1:Y966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>43614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43654</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>43654</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45005</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44847</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44599</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45187</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43900</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43614</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44860</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44600</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44057</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>44427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44635</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44656</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44845</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45086</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>44792</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>45005</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43881</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44985</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45071</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4531,14 +4531,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2481-2021</t>
+          <t>A 61396-2020</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44214</v>
+        <v>44155</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4550,20 +4550,25 @@
           <t>ÅNGE</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4578,12 +4583,103 @@
         <v>5</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
         <v>7</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>Blackticka
+Gammelgransskål
+Granticka
+Harticka
+Ullticka
+Svavelriska
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 61396-2020.xlsx", "A 61396-2020")</f>
+        <v/>
+      </c>
+      <c r="T40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 61396-2020.png", "A 61396-2020")</f>
+        <v/>
+      </c>
+      <c r="V40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 61396-2020.docx", "A 61396-2020")</f>
+        <v/>
+      </c>
+      <c r="W40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 61396-2020.docx", "A 61396-2020")</f>
+        <v/>
+      </c>
+      <c r="X40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 61396-2020.docx", "A 61396-2020")</f>
+        <v/>
+      </c>
+      <c r="Y40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 61396-2020.docx", "A 61396-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A 2481-2021</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>44214</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Lunglav
@@ -4594,87 +4690,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 2481-2021.xlsx", "A 2481-2021")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 2481-2021.png", "A 2481-2021")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 2481-2021.docx", "A 2481-2021")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 2481-2021.docx", "A 2481-2021")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 2481-2021.docx", "A 2481-2021")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 2481-2021.docx", "A 2481-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 20365-2022</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>44699</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="C42" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>18.5</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J42" t="n">
         <v>5</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>5</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>7</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -4685,87 +4781,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 20365-2022.xlsx", "A 20365-2022")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 20365-2022.png", "A 20365-2022")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 20365-2022.docx", "A 20365-2022")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 20365-2022.docx", "A 20365-2022")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 20365-2022.docx", "A 20365-2022")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 20365-2022.docx", "A 20365-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>A 25898-2022</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43" s="1" t="n">
         <v>44733</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="C43" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>1.3</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>1</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>5</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q43" t="n">
         <v>7</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Smalskaftslav
 Garnlav
@@ -4776,87 +4872,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 25898-2022.xlsx", "A 25898-2022")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 25898-2022.png", "A 25898-2022")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 25898-2022.docx", "A 25898-2022")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 25898-2022.docx", "A 25898-2022")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 25898-2022.docx", "A 25898-2022")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 25898-2022.docx", "A 25898-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>A 48200-2022</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44" s="1" t="n">
         <v>44853</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="C44" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>12.6</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J44" t="n">
         <v>6</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>6</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>7</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Kolflarnlav
@@ -4867,92 +4963,92 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 48200-2022.xlsx", "A 48200-2022")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 48200-2022.png", "A 48200-2022")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 48200-2022.docx", "A 48200-2022")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 48200-2022.docx", "A 48200-2022")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 48200-2022.docx", "A 48200-2022")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 48200-2022.docx", "A 48200-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 27230-2019</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>43614</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="C45" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>15.4</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J45" t="n">
         <v>2</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -4962,92 +5058,92 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 27230-2019.xlsx", "A 27230-2019")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 27230-2019.png", "A 27230-2019")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 27230-2019.docx", "A 27230-2019")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 27230-2019.docx", "A 27230-2019")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 27230-2019.docx", "A 27230-2019")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 27230-2019.docx", "A 27230-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 27213-2019</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>43614</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="C46" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ÅNGE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>6</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Järpe
@@ -5057,123 +5153,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 27213-2019.xlsx", "A 27213-2019")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 27213-2019.png", "A 27213-2019")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 27213-2019.docx", "A 27213-2019")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 27213-2019.docx", "A 27213-2019")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 27213-2019.docx", "A 27213-2019")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 27213-2019.docx", "A 27213-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>A 61396-2020</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>44155</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>VÄSTERNORRLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ÅNGE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>6</v>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Granticka
-Harticka
-Ullticka
-Svavelriska
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/artfynd/A 61396-2020.xlsx", "A 61396-2020")</f>
-        <v/>
-      </c>
-      <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/kartor/A 61396-2020.png", "A 61396-2020")</f>
-        <v/>
-      </c>
-      <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomål/A 61396-2020.docx", "A 61396-2020")</f>
-        <v/>
-      </c>
-      <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/klagomålsmail/A 61396-2020.docx", "A 61396-2020")</f>
-        <v/>
-      </c>
-      <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsyn/A 61396-2020.docx", "A 61396-2020")</f>
-        <v/>
-      </c>
-      <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGE/tillsynsmail/A 61396-2020.docx", "A 61396-2020")</f>
         <v/>
       </c>
     </row>
@@ -5187,7 +5188,7 @@
         <v>44174</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5282,7 +5283,7 @@
         <v>44217</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5377,7 +5378,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5467,7 +5468,7 @@
         <v>44952</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5562,7 +5563,7 @@
         <v>45187</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5661,7 +5662,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5759,7 +5760,7 @@
         <v>44113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5853,7 +5854,7 @@
         <v>44160</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5947,7 +5948,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6036,7 +6037,7 @@
         <v>44774</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6130,7 +6131,7 @@
         <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6228,7 +6229,7 @@
         <v>44860</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6326,7 +6327,7 @@
         <v>45006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6424,7 +6425,7 @@
         <v>45112</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6522,7 +6523,7 @@
         <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6620,7 +6621,7 @@
         <v>45112</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6718,7 +6719,7 @@
         <v>43444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6806,7 +6807,7 @@
         <v>43609</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6899,7 +6900,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6987,7 +6988,7 @@
         <v>44120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7080,7 +7081,7 @@
         <v>44711</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7173,7 +7174,7 @@
         <v>44734</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7261,7 +7262,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7348,7 +7349,7 @@
         <v>44120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7440,7 +7441,7 @@
         <v>44285</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7527,7 +7528,7 @@
         <v>44354</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7614,7 +7615,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7701,7 +7702,7 @@
         <v>44609</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7793,7 +7794,7 @@
         <v>44622</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7889,7 +7890,7 @@
         <v>44971</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7981,7 +7982,7 @@
         <v>45072</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8077,7 +8078,7 @@
         <v>45091</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8173,7 +8174,7 @@
         <v>45099</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8264,7 +8265,7 @@
         <v>45112</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8360,7 +8361,7 @@
         <v>43424</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8446,7 +8447,7 @@
         <v>43496</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8532,7 +8533,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8623,7 +8624,7 @@
         <v>43684</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8714,7 +8715,7 @@
         <v>43856</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8800,7 +8801,7 @@
         <v>44091</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8891,7 +8892,7 @@
         <v>44113</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8982,7 +8983,7 @@
         <v>44146</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9068,7 +9069,7 @@
         <v>44391</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9163,7 +9164,7 @@
         <v>44475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9249,7 +9250,7 @@
         <v>44500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9340,7 +9341,7 @@
         <v>44503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9435,7 +9436,7 @@
         <v>44571</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9521,7 +9522,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9612,7 +9613,7 @@
         <v>44812</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9703,7 +9704,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9794,7 +9795,7 @@
         <v>44853</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9880,7 +9881,7 @@
         <v>44883</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9966,7 +9967,7 @@
         <v>45076</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10057,7 +10058,7 @@
         <v>45105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10143,7 +10144,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10234,7 +10235,7 @@
         <v>45121</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10325,7 +10326,7 @@
         <v>43409</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10415,7 +10416,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10505,7 +10506,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10595,7 +10596,7 @@
         <v>43867</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10680,7 +10681,7 @@
         <v>43937</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10765,7 +10766,7 @@
         <v>43963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10855,7 +10856,7 @@
         <v>44019</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10945,7 +10946,7 @@
         <v>44068</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11039,7 +11040,7 @@
         <v>44114</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11124,7 +11125,7 @@
         <v>44167</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11218,7 +11219,7 @@
         <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11303,7 +11304,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11397,7 +11398,7 @@
         <v>44439</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11487,7 +11488,7 @@
         <v>44473</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11572,7 +11573,7 @@
         <v>44483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11662,7 +11663,7 @@
         <v>44496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11756,7 +11757,7 @@
         <v>44500</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11850,7 +11851,7 @@
         <v>44500</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11944,7 +11945,7 @@
         <v>44539</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12038,7 +12039,7 @@
         <v>44699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12123,7 +12124,7 @@
         <v>44819</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12217,7 +12218,7 @@
         <v>44854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12307,7 +12308,7 @@
         <v>44964</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12392,7 +12393,7 @@
         <v>45072</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12482,7 +12483,7 @@
         <v>45086</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12572,7 +12573,7 @@
         <v>45092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12662,7 +12663,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12752,7 +12753,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12846,7 +12847,7 @@
         <v>45148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12936,7 +12937,7 @@
         <v>43334</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12993,7 +12994,7 @@
         <v>43334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13050,7 +13051,7 @@
         <v>43336</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13107,7 +13108,7 @@
         <v>43340</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13164,7 +13165,7 @@
         <v>43375</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13221,7 +13222,7 @@
         <v>43376</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13283,7 +13284,7 @@
         <v>43383</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13340,7 +13341,7 @@
         <v>43402</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13402,7 +13403,7 @@
         <v>43402</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13464,7 +13465,7 @@
         <v>43404</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13521,7 +13522,7 @@
         <v>43404</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13578,7 +13579,7 @@
         <v>43409</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13640,7 +13641,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13697,7 +13698,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13754,7 +13755,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13811,7 +13812,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13873,7 +13874,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13930,7 +13931,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13987,7 +13988,7 @@
         <v>43412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14049,7 +14050,7 @@
         <v>43412</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14106,7 +14107,7 @@
         <v>43413</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14168,7 +14169,7 @@
         <v>43413</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14225,7 +14226,7 @@
         <v>43416</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14287,7 +14288,7 @@
         <v>43416</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14344,7 +14345,7 @@
         <v>43417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14406,7 +14407,7 @@
         <v>43419</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14468,7 +14469,7 @@
         <v>43420</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14525,7 +14526,7 @@
         <v>43420</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14582,7 +14583,7 @@
         <v>43424</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14639,7 +14640,7 @@
         <v>43424</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14701,7 +14702,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14758,7 +14759,7 @@
         <v>43432</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14815,7 +14816,7 @@
         <v>43433</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14872,7 +14873,7 @@
         <v>43434</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14929,7 +14930,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14986,7 +14987,7 @@
         <v>43441</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15043,7 +15044,7 @@
         <v>43446</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15100,7 +15101,7 @@
         <v>43447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15157,7 +15158,7 @@
         <v>43447</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15214,7 +15215,7 @@
         <v>43447</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15271,7 +15272,7 @@
         <v>43447</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15328,7 +15329,7 @@
         <v>43447</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15385,7 +15386,7 @@
         <v>43447</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15442,7 +15443,7 @@
         <v>43447</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15499,7 +15500,7 @@
         <v>43447</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15561,7 +15562,7 @@
         <v>43453</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15623,7 +15624,7 @@
         <v>43453</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15680,7 +15681,7 @@
         <v>43455</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15737,7 +15738,7 @@
         <v>43455</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15794,7 +15795,7 @@
         <v>43455</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15851,7 +15852,7 @@
         <v>43467</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15908,7 +15909,7 @@
         <v>43469</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15965,7 +15966,7 @@
         <v>43469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16022,7 +16023,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16079,7 +16080,7 @@
         <v>43479</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16141,7 +16142,7 @@
         <v>43479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16198,7 +16199,7 @@
         <v>43479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16260,7 +16261,7 @@
         <v>43479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16322,7 +16323,7 @@
         <v>43482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16379,7 +16380,7 @@
         <v>43483</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16441,7 +16442,7 @@
         <v>43486</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16498,7 +16499,7 @@
         <v>43493</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16555,7 +16556,7 @@
         <v>43493</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16612,7 +16613,7 @@
         <v>43493</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16669,7 +16670,7 @@
         <v>43496</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16726,7 +16727,7 @@
         <v>43496</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16783,7 +16784,7 @@
         <v>43496</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16840,7 +16841,7 @@
         <v>43496</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16897,7 +16898,7 @@
         <v>43501</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16959,7 +16960,7 @@
         <v>43501</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17021,7 +17022,7 @@
         <v>43521</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17078,7 +17079,7 @@
         <v>43531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17140,7 +17141,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17202,7 +17203,7 @@
         <v>43535</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17264,7 +17265,7 @@
         <v>43535</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17326,7 +17327,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17383,7 +17384,7 @@
         <v>43542</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17440,7 +17441,7 @@
         <v>43543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17502,7 +17503,7 @@
         <v>43546</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17564,7 +17565,7 @@
         <v>43551</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17621,7 +17622,7 @@
         <v>43552</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17678,7 +17679,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17735,7 +17736,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17792,7 +17793,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17854,7 +17855,7 @@
         <v>43553</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17916,7 +17917,7 @@
         <v>43553</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17973,7 +17974,7 @@
         <v>43556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18035,7 +18036,7 @@
         <v>43556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18092,7 +18093,7 @@
         <v>43556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18149,7 +18150,7 @@
         <v>43557</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18211,7 +18212,7 @@
         <v>43558</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18273,7 +18274,7 @@
         <v>43563</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18330,7 +18331,7 @@
         <v>43564</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18387,7 +18388,7 @@
         <v>43564</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18444,7 +18445,7 @@
         <v>43564</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18501,7 +18502,7 @@
         <v>43564</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18558,7 +18559,7 @@
         <v>43565</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18615,7 +18616,7 @@
         <v>43570</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18672,7 +18673,7 @@
         <v>43570</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18734,7 +18735,7 @@
         <v>43571</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18791,7 +18792,7 @@
         <v>43571</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18848,7 +18849,7 @@
         <v>43572</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18905,7 +18906,7 @@
         <v>43579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18967,7 +18968,7 @@
         <v>43581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19024,7 +19025,7 @@
         <v>43581</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19081,7 +19082,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19143,7 +19144,7 @@
         <v>43581</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19200,7 +19201,7 @@
         <v>43585</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19262,7 +19263,7 @@
         <v>43592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19319,7 +19320,7 @@
         <v>43593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19376,7 +19377,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19433,7 +19434,7 @@
         <v>43600</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19490,7 +19491,7 @@
         <v>43600</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19547,7 +19548,7 @@
         <v>43601</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19609,7 +19610,7 @@
         <v>43606</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19666,7 +19667,7 @@
         <v>43607</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19723,7 +19724,7 @@
         <v>43612</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19780,7 +19781,7 @@
         <v>43614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19842,7 +19843,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19904,7 +19905,7 @@
         <v>43627</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19961,7 +19962,7 @@
         <v>43627</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20018,7 +20019,7 @@
         <v>43627</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20075,7 +20076,7 @@
         <v>43627</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20132,7 +20133,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20189,7 +20190,7 @@
         <v>43633</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20246,7 +20247,7 @@
         <v>43633</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20303,7 +20304,7 @@
         <v>43640</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20360,7 +20361,7 @@
         <v>43642</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20417,7 +20418,7 @@
         <v>43647</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20479,7 +20480,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20541,7 +20542,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20603,7 +20604,7 @@
         <v>43654</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20680,7 +20681,7 @@
         <v>43664</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20737,7 +20738,7 @@
         <v>43670</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20794,7 +20795,7 @@
         <v>43679</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20851,7 +20852,7 @@
         <v>43682</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20908,7 +20909,7 @@
         <v>43683</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20970,7 +20971,7 @@
         <v>43684</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21032,7 +21033,7 @@
         <v>43684</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21089,7 +21090,7 @@
         <v>43684</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21146,7 +21147,7 @@
         <v>43685</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21203,7 +21204,7 @@
         <v>43690</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21265,7 +21266,7 @@
         <v>43696</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21322,7 +21323,7 @@
         <v>43697</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21379,7 +21380,7 @@
         <v>43700</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21441,7 +21442,7 @@
         <v>43706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21498,7 +21499,7 @@
         <v>43706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21555,7 +21556,7 @@
         <v>43706</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21612,7 +21613,7 @@
         <v>43706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21669,7 +21670,7 @@
         <v>43706</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21726,7 +21727,7 @@
         <v>43706</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21783,7 +21784,7 @@
         <v>43706</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21840,7 +21841,7 @@
         <v>43706</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21897,7 +21898,7 @@
         <v>43706</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21954,7 +21955,7 @@
         <v>43707</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22011,7 +22012,7 @@
         <v>43710</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22073,7 +22074,7 @@
         <v>43713</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22130,7 +22131,7 @@
         <v>43728</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22192,7 +22193,7 @@
         <v>43734</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22254,7 +22255,7 @@
         <v>43734</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22316,7 +22317,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22373,7 +22374,7 @@
         <v>43738</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22435,7 +22436,7 @@
         <v>43738</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22492,7 +22493,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22549,7 +22550,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22606,7 +22607,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22663,7 +22664,7 @@
         <v>43742</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22720,7 +22721,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22777,7 +22778,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22834,7 +22835,7 @@
         <v>43747</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22891,7 +22892,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22953,7 +22954,7 @@
         <v>43752</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23010,7 +23011,7 @@
         <v>43752</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23067,7 +23068,7 @@
         <v>43756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23124,7 +23125,7 @@
         <v>43760</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23181,7 +23182,7 @@
         <v>43760</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23243,7 +23244,7 @@
         <v>43760</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23300,7 +23301,7 @@
         <v>43760</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23362,7 +23363,7 @@
         <v>43761</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23424,7 +23425,7 @@
         <v>43761</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23481,7 +23482,7 @@
         <v>43761</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23543,7 +23544,7 @@
         <v>43762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23605,7 +23606,7 @@
         <v>43766</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23662,7 +23663,7 @@
         <v>43766</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23719,7 +23720,7 @@
         <v>43773</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23776,7 +23777,7 @@
         <v>43773</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23838,7 +23839,7 @@
         <v>43774</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23895,7 +23896,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23952,7 +23953,7 @@
         <v>43774</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24009,7 +24010,7 @@
         <v>43781</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24066,7 +24067,7 @@
         <v>43781</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24123,7 +24124,7 @@
         <v>43781</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24185,7 +24186,7 @@
         <v>43783</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24247,7 +24248,7 @@
         <v>43783</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24309,7 +24310,7 @@
         <v>43787</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24366,7 +24367,7 @@
         <v>43787</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24423,7 +24424,7 @@
         <v>43788</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24480,7 +24481,7 @@
         <v>43789</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24542,7 +24543,7 @@
         <v>43790</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24599,7 +24600,7 @@
         <v>43794</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24656,7 +24657,7 @@
         <v>43794</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24713,7 +24714,7 @@
         <v>43794</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24770,7 +24771,7 @@
         <v>43794</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24832,7 +24833,7 @@
         <v>43794</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24889,7 +24890,7 @@
         <v>43794</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24946,7 +24947,7 @@
         <v>43795</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25003,7 +25004,7 @@
         <v>43795</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25060,7 +25061,7 @@
         <v>43795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25117,7 +25118,7 @@
         <v>43801</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25174,7 +25175,7 @@
         <v>43801</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25231,7 +25232,7 @@
         <v>43801</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25288,7 +25289,7 @@
         <v>43801</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25345,7 +25346,7 @@
         <v>43805</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25402,7 +25403,7 @@
         <v>43805</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25459,7 +25460,7 @@
         <v>43805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25516,7 +25517,7 @@
         <v>43805</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25573,7 +25574,7 @@
         <v>43805</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25635,7 +25636,7 @@
         <v>43815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25692,7 +25693,7 @@
         <v>43818</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25749,7 +25750,7 @@
         <v>43819</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25806,7 +25807,7 @@
         <v>43830</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25863,7 +25864,7 @@
         <v>43830</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25920,7 +25921,7 @@
         <v>43832</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25982,7 +25983,7 @@
         <v>43837</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26044,7 +26045,7 @@
         <v>43838</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26101,7 +26102,7 @@
         <v>43847</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26163,7 +26164,7 @@
         <v>43853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26220,7 +26221,7 @@
         <v>43853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26277,7 +26278,7 @@
         <v>43856</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26334,7 +26335,7 @@
         <v>43857</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26391,7 +26392,7 @@
         <v>43858</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26448,7 +26449,7 @@
         <v>43859</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26505,7 +26506,7 @@
         <v>43864</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26562,7 +26563,7 @@
         <v>43866</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26619,7 +26620,7 @@
         <v>43867</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26676,7 +26677,7 @@
         <v>43867</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26733,7 +26734,7 @@
         <v>43867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26790,7 +26791,7 @@
         <v>43867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26847,7 +26848,7 @@
         <v>43867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26904,7 +26905,7 @@
         <v>43867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26961,7 +26962,7 @@
         <v>43872</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27023,7 +27024,7 @@
         <v>43875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27085,7 +27086,7 @@
         <v>43875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27147,7 +27148,7 @@
         <v>43886</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27209,7 +27210,7 @@
         <v>43886</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27271,7 +27272,7 @@
         <v>43889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27333,7 +27334,7 @@
         <v>43899</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27390,7 +27391,7 @@
         <v>43899</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27447,7 +27448,7 @@
         <v>43902</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27509,7 +27510,7 @@
         <v>43908</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27566,7 +27567,7 @@
         <v>43914</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27623,7 +27624,7 @@
         <v>43914</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27680,7 +27681,7 @@
         <v>43921</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27737,7 +27738,7 @@
         <v>43921</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27799,7 +27800,7 @@
         <v>43936</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27856,7 +27857,7 @@
         <v>43941</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27913,7 +27914,7 @@
         <v>43943</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27975,7 +27976,7 @@
         <v>43944</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28032,7 +28033,7 @@
         <v>43944</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28089,7 +28090,7 @@
         <v>43949</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28151,7 +28152,7 @@
         <v>43951</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28213,7 +28214,7 @@
         <v>43957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28275,7 +28276,7 @@
         <v>43959</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28332,7 +28333,7 @@
         <v>43959</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28389,7 +28390,7 @@
         <v>43963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28451,7 +28452,7 @@
         <v>43963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28508,7 +28509,7 @@
         <v>43964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28565,7 +28566,7 @@
         <v>43964</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28622,7 +28623,7 @@
         <v>43964</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28679,7 +28680,7 @@
         <v>43966</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28741,7 +28742,7 @@
         <v>43969</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28803,7 +28804,7 @@
         <v>43976</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28860,7 +28861,7 @@
         <v>43976</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28917,7 +28918,7 @@
         <v>43976</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28974,7 +28975,7 @@
         <v>43978</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29031,7 +29032,7 @@
         <v>43978</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29088,7 +29089,7 @@
         <v>43978</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29145,7 +29146,7 @@
         <v>43980</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29202,7 +29203,7 @@
         <v>43987</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29259,7 +29260,7 @@
         <v>43992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29316,7 +29317,7 @@
         <v>43997</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29373,7 +29374,7 @@
         <v>44000</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29430,7 +29431,7 @@
         <v>44000</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29487,7 +29488,7 @@
         <v>44006</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29544,7 +29545,7 @@
         <v>44011</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29601,7 +29602,7 @@
         <v>44013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29663,7 +29664,7 @@
         <v>44014</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29720,7 +29721,7 @@
         <v>44014</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29777,7 +29778,7 @@
         <v>44015</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29839,7 +29840,7 @@
         <v>44015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29901,7 +29902,7 @@
         <v>44019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29963,7 +29964,7 @@
         <v>44025</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30020,7 +30021,7 @@
         <v>44029</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30077,7 +30078,7 @@
         <v>44029</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30134,7 +30135,7 @@
         <v>44032</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30191,7 +30192,7 @@
         <v>44032</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30248,7 +30249,7 @@
         <v>44035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30310,7 +30311,7 @@
         <v>44035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30367,7 +30368,7 @@
         <v>44036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30429,7 +30430,7 @@
         <v>44039</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30486,7 +30487,7 @@
         <v>44042</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30548,7 +30549,7 @@
         <v>44062</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30605,7 +30606,7 @@
         <v>44062</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30662,7 +30663,7 @@
         <v>44063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30719,7 +30720,7 @@
         <v>44064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30781,7 +30782,7 @@
         <v>44071</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30838,7 +30839,7 @@
         <v>44076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30895,7 +30896,7 @@
         <v>44076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30952,7 +30953,7 @@
         <v>44076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31009,7 +31010,7 @@
         <v>44077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31071,7 +31072,7 @@
         <v>44078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31133,7 +31134,7 @@
         <v>44090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31190,7 +31191,7 @@
         <v>44091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31247,7 +31248,7 @@
         <v>44095</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31304,7 +31305,7 @@
         <v>44095</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31361,7 +31362,7 @@
         <v>44096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31423,7 +31424,7 @@
         <v>44097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31480,7 +31481,7 @@
         <v>44103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31562,7 +31563,7 @@
         <v>44106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31619,7 +31620,7 @@
         <v>44106</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31676,7 +31677,7 @@
         <v>44109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31733,7 +31734,7 @@
         <v>44109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31790,7 +31791,7 @@
         <v>44109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31847,7 +31848,7 @@
         <v>44109</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31904,7 +31905,7 @@
         <v>44109</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31961,7 +31962,7 @@
         <v>44111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32018,7 +32019,7 @@
         <v>44113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32080,7 +32081,7 @@
         <v>44113</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32137,7 +32138,7 @@
         <v>44114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32194,7 +32195,7 @@
         <v>44118</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32251,7 +32252,7 @@
         <v>44118</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32308,7 +32309,7 @@
         <v>44118</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32365,7 +32366,7 @@
         <v>44118</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32422,7 +32423,7 @@
         <v>44120</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32484,7 +32485,7 @@
         <v>44120</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32546,7 +32547,7 @@
         <v>44120</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32608,7 +32609,7 @@
         <v>44120</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32670,7 +32671,7 @@
         <v>44120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32732,7 +32733,7 @@
         <v>44124</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32789,7 +32790,7 @@
         <v>44126</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32846,7 +32847,7 @@
         <v>44126</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32903,7 +32904,7 @@
         <v>44130</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32965,7 +32966,7 @@
         <v>44139</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33022,7 +33023,7 @@
         <v>44147</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33079,7 +33080,7 @@
         <v>44151</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33136,7 +33137,7 @@
         <v>44152</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33193,7 +33194,7 @@
         <v>44161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33255,7 +33256,7 @@
         <v>44161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33312,7 +33313,7 @@
         <v>44169</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33369,7 +33370,7 @@
         <v>44172</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33426,7 +33427,7 @@
         <v>44172</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33488,7 +33489,7 @@
         <v>44172</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33550,7 +33551,7 @@
         <v>44172</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33612,7 +33613,7 @@
         <v>44173</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33669,7 +33670,7 @@
         <v>44173</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33726,7 +33727,7 @@
         <v>44175</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33783,7 +33784,7 @@
         <v>44186</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33840,7 +33841,7 @@
         <v>44187</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33897,7 +33898,7 @@
         <v>44187</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33954,7 +33955,7 @@
         <v>44193</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34011,7 +34012,7 @@
         <v>44214</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34068,7 +34069,7 @@
         <v>44217</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34130,7 +34131,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34187,7 +34188,7 @@
         <v>44235</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34244,7 +34245,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34301,7 +34302,7 @@
         <v>44238</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34358,7 +34359,7 @@
         <v>44242</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34415,7 +34416,7 @@
         <v>44251</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34472,7 +34473,7 @@
         <v>44257</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34529,7 +34530,7 @@
         <v>44265</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34586,7 +34587,7 @@
         <v>44272</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34643,7 +34644,7 @@
         <v>44273</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34700,7 +34701,7 @@
         <v>44273</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34757,7 +34758,7 @@
         <v>44273</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34814,7 +34815,7 @@
         <v>44273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34871,7 +34872,7 @@
         <v>44280</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34928,7 +34929,7 @@
         <v>44293</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34985,7 +34986,7 @@
         <v>44299</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35042,7 +35043,7 @@
         <v>44305</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35099,7 +35100,7 @@
         <v>44305</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35156,7 +35157,7 @@
         <v>44305</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35213,7 +35214,7 @@
         <v>44308</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35270,7 +35271,7 @@
         <v>44312</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35327,7 +35328,7 @@
         <v>44313</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35389,7 +35390,7 @@
         <v>44320</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35446,7 +35447,7 @@
         <v>44323</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35508,7 +35509,7 @@
         <v>44326</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35565,7 +35566,7 @@
         <v>44326</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35622,7 +35623,7 @@
         <v>44328</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35679,7 +35680,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35736,7 +35737,7 @@
         <v>44340</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35793,7 +35794,7 @@
         <v>44340</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35850,7 +35851,7 @@
         <v>44341</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35907,7 +35908,7 @@
         <v>44341</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35964,7 +35965,7 @@
         <v>44347</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36021,7 +36022,7 @@
         <v>44354</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36078,7 +36079,7 @@
         <v>44354</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36135,7 +36136,7 @@
         <v>44354</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36192,7 +36193,7 @@
         <v>44358</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36249,7 +36250,7 @@
         <v>44358</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36306,7 +36307,7 @@
         <v>44358</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36363,7 +36364,7 @@
         <v>44358</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36420,7 +36421,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36477,7 +36478,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36539,7 +36540,7 @@
         <v>44363</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36596,7 +36597,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36653,7 +36654,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36710,7 +36711,7 @@
         <v>44368</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36772,7 +36773,7 @@
         <v>44369</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36834,7 +36835,7 @@
         <v>44369</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36891,7 +36892,7 @@
         <v>44377</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36948,7 +36949,7 @@
         <v>44379</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37005,7 +37006,7 @@
         <v>44379</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37062,7 +37063,7 @@
         <v>44382</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37124,7 +37125,7 @@
         <v>44383</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37186,7 +37187,7 @@
         <v>44383</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37243,7 +37244,7 @@
         <v>44384</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37300,7 +37301,7 @@
         <v>44393</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37362,7 +37363,7 @@
         <v>44393</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37424,7 +37425,7 @@
         <v>44397</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37481,7 +37482,7 @@
         <v>44399</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37538,7 +37539,7 @@
         <v>44399</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37595,7 +37596,7 @@
         <v>44399</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37652,7 +37653,7 @@
         <v>44399</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37709,7 +37710,7 @@
         <v>44406</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37766,7 +37767,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37823,7 +37824,7 @@
         <v>44411</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37880,7 +37881,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37937,7 +37938,7 @@
         <v>44431</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37994,7 +37995,7 @@
         <v>44433</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38056,7 +38057,7 @@
         <v>44435</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38113,7 +38114,7 @@
         <v>44439</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38175,7 +38176,7 @@
         <v>44439</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38237,7 +38238,7 @@
         <v>44441</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38299,7 +38300,7 @@
         <v>44441</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38356,7 +38357,7 @@
         <v>44441</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38418,7 +38419,7 @@
         <v>44452</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38480,7 +38481,7 @@
         <v>44453</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38542,7 +38543,7 @@
         <v>44453</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38599,7 +38600,7 @@
         <v>44454</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38656,7 +38657,7 @@
         <v>44456</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38713,7 +38714,7 @@
         <v>44456</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38775,7 +38776,7 @@
         <v>44457</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38832,7 +38833,7 @@
         <v>44459</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38889,7 +38890,7 @@
         <v>44460</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38951,7 +38952,7 @@
         <v>44460</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39008,7 +39009,7 @@
         <v>44461</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39065,7 +39066,7 @@
         <v>44461</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39122,7 +39123,7 @@
         <v>44466</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39179,7 +39180,7 @@
         <v>44466</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39241,7 +39242,7 @@
         <v>44469</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39298,7 +39299,7 @@
         <v>44469</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39355,7 +39356,7 @@
         <v>44473</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39412,7 +39413,7 @@
         <v>44475</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39469,7 +39470,7 @@
         <v>44477</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39526,7 +39527,7 @@
         <v>44477</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39583,7 +39584,7 @@
         <v>44482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39640,7 +39641,7 @@
         <v>44483</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39697,7 +39698,7 @@
         <v>44489</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39754,7 +39755,7 @@
         <v>44494</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39816,7 +39817,7 @@
         <v>44494</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39878,7 +39879,7 @@
         <v>44495</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39935,7 +39936,7 @@
         <v>44501</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39992,7 +39993,7 @@
         <v>44502</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40049,7 +40050,7 @@
         <v>44502</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40106,7 +40107,7 @@
         <v>44503</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40168,7 +40169,7 @@
         <v>44503</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40230,7 +40231,7 @@
         <v>44508</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40292,7 +40293,7 @@
         <v>44509</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40349,7 +40350,7 @@
         <v>44512</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40411,7 +40412,7 @@
         <v>44515</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40473,7 +40474,7 @@
         <v>44515</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40530,7 +40531,7 @@
         <v>44518</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40587,7 +40588,7 @@
         <v>44519</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v